--- a/data/Appropriations data.xlsx
+++ b/data/Appropriations data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22620" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>1965-66</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Inflation-adjusted</t>
+  </si>
+  <si>
+    <t>Corrections</t>
+  </si>
+  <si>
+    <t>Corrections (inflation-adjusted</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +201,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,8 +236,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -223,7 +249,11 @@
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -553,15 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I44" sqref="I4:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -574,8 +604,14 @@
       <c r="D1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +626,7 @@
         <v>1533657.7087033747</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -605,7 +641,7 @@
         <v>1771407.0714175727</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9" ht="16" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -619,8 +655,26 @@
         <f t="shared" si="0"/>
         <v>1728880.6155505618</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>270122</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="1">E:E*(236.712/C:C)</f>
+        <v>1915838.767460674</v>
+      </c>
+      <c r="G4">
+        <v>6.8510960999999995E-2</v>
+      </c>
+      <c r="H4">
+        <f>B:B * (1/G:G)</f>
+        <v>3558000.0111223082</v>
+      </c>
+      <c r="I4">
+        <f>E:E /H:H</f>
+        <v>7.5919617525463348E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -634,8 +688,26 @@
         <f t="shared" si="0"/>
         <v>1976768.3591630256</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>306703</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2086694.6578523796</v>
+      </c>
+      <c r="G5">
+        <v>7.3314661000000003E-2</v>
+      </c>
+      <c r="H5">
+        <f>B:B * (1/G:G)</f>
+        <v>3962999.9789537317</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I47" si="2">E:E /H:H</f>
+        <v>7.7391622919203845E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,8 +721,26 @@
         <f t="shared" si="0"/>
         <v>2125161.7863315432</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>350909</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2264383.2622195566</v>
+      </c>
+      <c r="G6">
+        <v>7.9819194999999996E-2</v>
+      </c>
+      <c r="H6">
+        <f>B:B * (1/G:G)</f>
+        <v>4126000.0179154905</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>8.5048230362656144E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,8 +754,26 @@
         <f t="shared" si="0"/>
         <v>2054236.2455074403</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>388951</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2370356.035013645</v>
+      </c>
+      <c r="G7">
+        <v>7.8573193E-2</v>
+      </c>
+      <c r="H7">
+        <f>B:B * (1/G:G)</f>
+        <v>4290000.0258357832</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>9.0664568218557076E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,8 +787,26 @@
         <f t="shared" si="0"/>
         <v>1962190.0436232493</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>415008</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2426632.751920559</v>
+      </c>
+      <c r="G8">
+        <v>6.4373297999999995E-2</v>
+      </c>
+      <c r="H8">
+        <f>B:B * (1/G:G)</f>
+        <v>5212999.9615679169</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>7.9610205843005183E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -694,8 +820,26 @@
         <f t="shared" si="0"/>
         <v>2178154.6584385764</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>465195</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2633879.6125143515</v>
+      </c>
+      <c r="G9">
+        <v>6.6812260999999998E-2</v>
+      </c>
+      <c r="H9">
+        <f>B:B * (1/G:G)</f>
+        <v>5758000.0173920169</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>8.0791073045307443E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -709,8 +853,26 @@
         <f t="shared" si="0"/>
         <v>2375965.0629150253</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>534337</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2847135.1703770398</v>
+      </c>
+      <c r="G10">
+        <v>6.9924729000000005E-2</v>
+      </c>
+      <c r="H10">
+        <f>B:B * (1/G:G)</f>
+        <v>6377000.0452915588</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>8.3791280571579474E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -724,8 +886,26 @@
         <f t="shared" si="0"/>
         <v>2469816.6350751263</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>630123</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>3024467.7408601497</v>
+      </c>
+      <c r="G11">
+        <v>6.3976874000000003E-2</v>
+      </c>
+      <c r="H11">
+        <f>B:B * (1/G:G)</f>
+        <v>8043000.0377949066</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>7.8344274156283158E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -739,8 +919,26 @@
         <f t="shared" si="0"/>
         <v>2574744.8998049232</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>681274</v>
+      </c>
+      <c r="F12">
+        <f>E:E*(236.712/C:C)</f>
+        <v>2996112.0499396189</v>
+      </c>
+      <c r="G12">
+        <v>6.4691822999999996E-2</v>
+      </c>
+      <c r="H12">
+        <f>B:B * (1/G:G)</f>
+        <v>9050000.0285971239</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>7.5278894789750292E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -754,8 +952,26 @@
         <f t="shared" si="0"/>
         <v>2842814.1201763479</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>746610</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F43" si="3">E:E*(236.712/C:C)</f>
+        <v>3104202.2433386613</v>
+      </c>
+      <c r="G13">
+        <v>6.3421017999999996E-2</v>
+      </c>
+      <c r="H13">
+        <f>B:B * (1/G:G)</f>
+        <v>10781000.077923695</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>6.9252387960634265E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -769,8 +985,26 @@
         <f t="shared" si="0"/>
         <v>2879961.505452266</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>826705</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>3228318.6888166685</v>
+      </c>
+      <c r="G14">
+        <v>5.6945255E-2</v>
+      </c>
+      <c r="H14">
+        <f>B:B * (1/G:G)</f>
+        <v>12951000.043814011</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>6.3833294510324087E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -784,8 +1018,26 @@
         <f t="shared" si="0"/>
         <v>2783022.2801262988</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>896446</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>3252498.7822568282</v>
+      </c>
+      <c r="G15">
+        <v>5.4063292999999998E-2</v>
+      </c>
+      <c r="H15">
+        <f>B:B * (1/G:G)</f>
+        <v>14187999.979949426</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>6.3183394507109053E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -799,8 +1051,26 @@
         <f t="shared" si="0"/>
         <v>2941496.288552416</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1094247</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>3568623.4498987366</v>
+      </c>
+      <c r="G16">
+        <v>5.3357253E-2</v>
+      </c>
+      <c r="H16">
+        <f>B:B * (1/G:G)</f>
+        <v>16903999.911689606</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>6.4733022108175498E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -814,8 +1084,26 @@
         <f t="shared" si="0"/>
         <v>3087614.2870252361</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1240218</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>3563532.3211827683</v>
+      </c>
+      <c r="G17">
+        <v>6.0342766999999999E-2</v>
+      </c>
+      <c r="H17">
+        <f>B:B * (1/G:G)</f>
+        <v>17808000.087234978</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>6.9643867583368074E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -829,8 +1117,26 @@
         <f t="shared" si="0"/>
         <v>2856415.3895285539</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1387387</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>3611572.8233314636</v>
+      </c>
+      <c r="G18">
+        <v>5.7591613E-2</v>
+      </c>
+      <c r="H18">
+        <f>B:B * (1/G:G)</f>
+        <v>19052999.956781901</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>7.2817246792999682E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -844,8 +1150,26 @@
         <f t="shared" si="0"/>
         <v>2759694.6391389468</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1464943</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>3592238.7931173793</v>
+      </c>
+      <c r="G19">
+        <v>5.7516482000000001E-2</v>
+      </c>
+      <c r="H19">
+        <f>B:B * (1/G:G)</f>
+        <v>19566999.942729462</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>7.4868043352978642E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -859,8 +1183,26 @@
         <f t="shared" si="0"/>
         <v>2638534.2934436598</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>1643557</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>3906787.9515981642</v>
+      </c>
+      <c r="G20">
+        <v>4.9776322999999997E-2</v>
+      </c>
+      <c r="H20">
+        <f>B:B * (1/G:G)</f>
+        <v>22299999.941739369</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>7.3702107815871359E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -874,8 +1216,26 @@
         <f t="shared" si="0"/>
         <v>3318709.8469975847</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1943786</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>4427058.5053063026</v>
+      </c>
+      <c r="G21">
+        <v>5.7109307999999998E-2</v>
+      </c>
+      <c r="H21">
+        <f>B:B * (1/G:G)</f>
+        <v>25515000.111715592</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>7.6182088633716352E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -889,8 +1249,26 @@
         <f t="shared" si="0"/>
         <v>3611708.1374721192</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>2304878</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>5070560.2336059483</v>
+      </c>
+      <c r="G22">
+        <v>6.0863832E-2</v>
+      </c>
+      <c r="H22">
+        <f>B:B * (1/G:G)</f>
+        <v>26973999.92823324</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>8.5448135468685987E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -904,8 +1282,26 @@
         <f t="shared" si="0"/>
         <v>3859105.6453342084</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>2700372</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>5827320.6511322614</v>
+      </c>
+      <c r="G23">
+        <v>5.7077782000000001E-2</v>
+      </c>
+      <c r="H23">
+        <f>B:B * (1/G:G)</f>
+        <v>31331000.213007577</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>8.6188502813226389E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -919,8 +1315,26 @@
         <f t="shared" si="0"/>
         <v>3935314.8636559672</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>3012867</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>6277069.2176698912</v>
+      </c>
+      <c r="G24">
+        <v>6.0486485999999999E-2</v>
+      </c>
+      <c r="H24">
+        <f>B:B * (1/G:G)</f>
+        <v>31228000.251163542</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>9.6479664908666121E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -934,8 +1348,26 @@
         <f t="shared" si="0"/>
         <v>3942792.3522637915</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>3311964</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>6628464.3615979701</v>
+      </c>
+      <c r="G25">
+        <v>5.5265436000000001E-2</v>
+      </c>
+      <c r="H25">
+        <f>B:B * (1/G:G)</f>
+        <v>35647000.052618779</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>9.2910034367862299E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -949,8 +1381,26 @@
         <f t="shared" si="0"/>
         <v>3966135.8969840729</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>3982213</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>7605473.5574381566</v>
+      </c>
+      <c r="G26">
+        <v>5.5752309E-2</v>
+      </c>
+      <c r="H26">
+        <f>B:B * (1/G:G)</f>
+        <v>37247999.898981757</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0.10691078744630422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -964,8 +1414,26 @@
         <f t="shared" si="0"/>
         <v>3869289.5184068331</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>4443348</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>8049976.2109935861</v>
+      </c>
+      <c r="G27">
+        <v>5.7992097999999999E-2</v>
+      </c>
+      <c r="H27">
+        <f>B:B * (1/G:G)</f>
+        <v>36828000.256172836</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0.12065135139275554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -979,8 +1447,26 @@
         <f t="shared" si="0"/>
         <v>3660294.4819229329</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>4764279</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>8282197.6737976158</v>
+      </c>
+      <c r="G28">
+        <v>5.2544420000000001E-2</v>
+      </c>
+      <c r="H28">
+        <f>B:B * (1/G:G)</f>
+        <v>40072000.033495463</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0.11889296755883472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -994,8 +1480,26 @@
         <f t="shared" si="0"/>
         <v>3169247.8694871287</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>4750062</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>8013774.5256435843</v>
+      </c>
+      <c r="G29">
+        <v>4.7925376999999998E-2</v>
+      </c>
+      <c r="H29">
+        <f>B:B * (1/G:G)</f>
+        <v>39196999.952655569</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0.12118432547739376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -1009,8 +1513,26 @@
         <f t="shared" si="0"/>
         <v>2938089.4966741651</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>5240094</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>8585520.8923896868</v>
+      </c>
+      <c r="G30">
+        <v>4.6758519999999998E-2</v>
+      </c>
+      <c r="H30">
+        <f>B:B * (1/G:G)</f>
+        <v>38350999.988879032</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.13663513341293618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1024,8 +1546,26 @@
         <f t="shared" si="0"/>
         <v>2915126.0463754423</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>5570890</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>8896586.3631641082</v>
+      </c>
+      <c r="G31">
+        <v>4.4414755E-2</v>
+      </c>
+      <c r="H31">
+        <f>B:B * (1/G:G)</f>
+        <v>41098999.64550069</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>0.1355480680321102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -1039,8 +1579,26 @@
         <f t="shared" si="0"/>
         <v>2978952.0848913589</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>6012280</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>9339485.5289632045</v>
+      </c>
+      <c r="G32">
+        <v>4.2781840000000002E-2</v>
+      </c>
+      <c r="H32">
+        <f>B:B * (1/G:G)</f>
+        <v>44825000.514236882</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>0.13412782891302896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -1054,8 +1612,26 @@
         <f t="shared" si="0"/>
         <v>3104574.9594155224</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>6317786</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>9534073.8733886704</v>
+      </c>
+      <c r="G33">
+        <v>4.2899738999999999E-2</v>
+      </c>
+      <c r="H33">
+        <f>B:B * (1/G:G)</f>
+        <v>47955000.378906742</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>0.13174405067420061</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -1069,8 +1645,26 @@
         <f t="shared" si="0"/>
         <v>3215169.0341068367</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>6605978</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>9741250.6733281408</v>
+      </c>
+      <c r="G34">
+        <v>4.0482556000000003E-2</v>
+      </c>
+      <c r="H34">
+        <f>B:B * (1/G:G)</f>
+        <v>53859000.405013949</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>0.12265318610304218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -1084,8 +1678,26 @@
         <f t="shared" si="0"/>
         <v>3656183.0239988216</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>6995295</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>10158214.750441695</v>
+      </c>
+      <c r="G35">
+        <v>4.3261448000000001E-2</v>
+      </c>
+      <c r="H35">
+        <f>B:B * (1/G:G)</f>
+        <v>58198999.719103254</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>0.12019613797080198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1099,8 +1711,26 @@
         <f t="shared" si="0"/>
         <v>3859057.9743671319</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>7564664</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>10749276.605463943</v>
+      </c>
+      <c r="G36">
+        <v>3.8781640999999999E-2</v>
+      </c>
+      <c r="H36">
+        <f>B:B * (1/G:G)</f>
+        <v>70027000.662504211</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>0.10802496077845701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -1114,8 +1744,26 @@
         <f t="shared" si="0"/>
         <v>4387505.4193458464</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>8046805</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>11061926.832605463</v>
+      </c>
+      <c r="G37">
+        <v>4.2179176999999998E-2</v>
+      </c>
+      <c r="H37">
+        <f>B:B * (1/G:G)</f>
+        <v>75668000.824198157</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>0.10634356547486162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1129,8 +1777,26 @@
         <f t="shared" si="0"/>
         <v>4442523.5662046298</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>8569335</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>11457532.260819467</v>
+      </c>
+      <c r="G38">
+        <v>5.3031873E-2</v>
+      </c>
+      <c r="H38">
+        <f>B:B * (1/G:G)</f>
+        <v>62654000.547934629</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>0.13677235172626956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1144,8 +1810,26 @@
         <f t="shared" si="0"/>
         <v>4145537.5573729477</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>9045424</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>11904131.418703821</v>
+      </c>
+      <c r="G39">
+        <v>4.8552089E-2</v>
+      </c>
+      <c r="H39">
+        <f>B:B * (1/G:G)</f>
+        <v>64879000.365978077</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>0.13941990395929918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -1159,8 +1843,26 @@
         <f t="shared" si="0"/>
         <v>3689708.4191739126</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>9750998</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>12544446.948782608</v>
+      </c>
+      <c r="G40">
+        <v>4.0838813000000002E-2</v>
+      </c>
+      <c r="H40">
+        <f>B:B * (1/G:G)</f>
+        <v>70229000.044638902</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>0.1388457473949804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -1174,8 +1876,26 @@
         <f t="shared" si="0"/>
         <v>3381584.0683083832</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>10482633</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>13135309.37120715</v>
+      </c>
+      <c r="G41">
+        <v>3.3703921999999997E-2</v>
+      </c>
+      <c r="H41">
+        <f>B:B * (1/G:G)</f>
+        <v>80069998.975193456</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>0.1309183606115398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1189,8 +1909,26 @@
         <f t="shared" si="0"/>
         <v>3441046.729370554</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>11915738</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>14444827.715159243</v>
+      </c>
+      <c r="G42">
+        <v>3.1376476E-2</v>
+      </c>
+      <c r="H42">
+        <f>B:B * (1/G:G)</f>
+        <v>90467999.019392744</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>0.13171218695182746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1204,8 +1942,26 @@
         <f t="shared" si="0"/>
         <v>3604666.5146905603</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>13845294</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>16260070.219629088</v>
+      </c>
+      <c r="G43">
+        <v>3.2919753000000003E-2</v>
+      </c>
+      <c r="H43">
+        <f>B:B * (1/G:G)</f>
+        <v>93236999.682227254</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>0.14849570500110351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -1219,8 +1975,22 @@
         <f t="shared" si="0"/>
         <v>3718785.2033721735</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>15201429</v>
+      </c>
+      <c r="G44">
+        <v>3.4183804999999998E-2</v>
+      </c>
+      <c r="H44">
+        <f>B:B * (1/G:G)</f>
+        <v>95291001.104177848</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>0.15952638574319189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -1234,8 +2004,19 @@
         <f t="shared" si="0"/>
         <v>2659362.8884573574</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="G45">
+        <v>3.0457833E-2</v>
+      </c>
+      <c r="H45">
+        <f>B:B * (1/G:G)</f>
+        <v>79397999.194492921</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -1249,8 +2030,19 @@
         <f t="shared" si="0"/>
         <v>2864027.1013072957</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="G46">
+        <v>3.0711044E-2</v>
+      </c>
+      <c r="H46">
+        <f>B:B * (1/G:G)</f>
+        <v>84532000.93100059</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -1264,29 +2056,69 @@
         <f t="shared" si="0"/>
         <v>3276612.016397953</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="G47">
+        <v>3.0711044E-2</v>
+      </c>
+      <c r="H47">
+        <f>B:B * (1/G:G)</f>
+        <v>98291969.494752437</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="C48" s="3">
         <v>224.93</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
+      <c r="G48">
+        <v>3.0711044E-2</v>
+      </c>
+      <c r="H48">
+        <f>B:B * (1/G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
       <c r="C49" s="3">
         <v>229.6</v>
       </c>
-    </row>
-    <row r="50" spans="3:3">
+      <c r="G49">
+        <v>3.0711044E-2</v>
+      </c>
+      <c r="H49">
+        <f>B:B * (1/G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
       <c r="C50" s="3">
         <v>232.96199999999999</v>
       </c>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="G50">
+        <v>3.0711044E-2</v>
+      </c>
+      <c r="H50">
+        <f>B:B * (1/G:G)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
       <c r="C51" s="3">
         <v>236.71199999999999</v>
       </c>
+      <c r="G51">
+        <v>3.0711044E-2</v>
+      </c>
+      <c r="H51">
+        <f>B:B * (1/G:G)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
